--- a/Dang Nhap Facebook.xlsx
+++ b/Dang Nhap Facebook.xlsx
@@ -15,22 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>http://trinhtuantai.com/huong-dan-viet-tinh-nang-dang-nhap-voi-facebook-cho-website-su-dung-php.html</t>
   </si>
   <si>
     <t>http://trinhtuantai.com/huong-dan-viet-tinh-nang-dang-nhap-voi-google-cho-website-su-dung-php.html</t>
+  </si>
+  <si>
+    <t>Client ID : 328338891021-gbve64t0s6agm7avid0vj4omb7i85286.apps.googleusercontent.com</t>
+  </si>
+  <si>
+    <t>Client secret : W60sDp2j-m2ywaZrXA_cwSgJ</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/thuebannhadat/google/callback</t>
+  </si>
+  <si>
+    <t>http://localhost:8080</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/thuebannhadat/facebook/callback</t>
+  </si>
+  <si>
+    <t>APP ID = 1746218202296248</t>
+  </si>
+  <si>
+    <t>App Secret =  a2ed17e49edc064dc88450098f722616</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -44,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,14 +87,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE7E7E7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,40 +413,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2"/>
+  <dimension ref="C2:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2"/>
+  <dimension ref="C2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>